--- a/1_variable.js/7_WebScraping/espnScraper/IPL/Kolkata Knight Riders/Eoin Morgan (c).xlsx
+++ b/1_variable.js/7_WebScraping/espnScraper/IPL/Kolkata Knight Riders/Eoin Morgan (c).xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -660,9 +660,254 @@
         <v>KKR won by 59 runs</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Eoin Morgan (c)</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Kolkata Knight Riders</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Kings XI Punjab</v>
+      </c>
+      <c r="D9" t="str">
+        <v>40</v>
+      </c>
+      <c r="E9" t="str">
+        <v>25</v>
+      </c>
+      <c r="F9" t="str">
+        <v>5</v>
+      </c>
+      <c r="G9" t="str">
+        <v>2</v>
+      </c>
+      <c r="H9" t="str">
+        <v>160.00</v>
+      </c>
+      <c r="I9" t="str">
+        <v>Sharjah</v>
+      </c>
+      <c r="J9" t="str">
+        <v>Oct 26 2020</v>
+      </c>
+      <c r="K9" t="str">
+        <v>Kings XI won by 8 wickets (with 7 balls remaining)</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Eoin Morgan (c)</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Kolkata Knight Riders</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Delhi Capitals</v>
+      </c>
+      <c r="D10" t="str">
+        <v>17</v>
+      </c>
+      <c r="E10" t="str">
+        <v>9</v>
+      </c>
+      <c r="F10" t="str">
+        <v>2</v>
+      </c>
+      <c r="G10" t="str">
+        <v>1</v>
+      </c>
+      <c r="H10" t="str">
+        <v>188.88</v>
+      </c>
+      <c r="I10" t="str">
+        <v>Abu Dhabi</v>
+      </c>
+      <c r="J10" t="str">
+        <v>Oct 24 2020</v>
+      </c>
+      <c r="K10" t="str">
+        <v>KKR won by 59 runs</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Eoin Morgan (c)</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Kolkata Knight Riders</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="D11" t="str">
+        <v>68</v>
+      </c>
+      <c r="E11" t="str">
+        <v>35</v>
+      </c>
+      <c r="F11" t="str">
+        <v>5</v>
+      </c>
+      <c r="G11" t="str">
+        <v>6</v>
+      </c>
+      <c r="H11" t="str">
+        <v>194.28</v>
+      </c>
+      <c r="I11" t="str">
+        <v>Dubai (DSC)</v>
+      </c>
+      <c r="J11" t="str">
+        <v>Nov 1 2020</v>
+      </c>
+      <c r="K11" t="str">
+        <v>KKR won by 60 runs</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Eoin Morgan (c)</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Kolkata Knight Riders</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Mumbai Indians</v>
+      </c>
+      <c r="D12" t="str">
+        <v>39</v>
+      </c>
+      <c r="E12" t="str">
+        <v>29</v>
+      </c>
+      <c r="F12" t="str">
+        <v>2</v>
+      </c>
+      <c r="G12" t="str">
+        <v>2</v>
+      </c>
+      <c r="H12" t="str">
+        <v>134.48</v>
+      </c>
+      <c r="I12" t="str">
+        <v>Abu Dhabi</v>
+      </c>
+      <c r="J12" t="str">
+        <v>Oct 16 2020</v>
+      </c>
+      <c r="K12" t="str">
+        <v>Mumbai won by 8 wickets (with 19 balls remaining)</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Eoin Morgan (c)</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Kolkata Knight Riders</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Chennai Super Kings</v>
+      </c>
+      <c r="D13" t="str">
+        <v>15</v>
+      </c>
+      <c r="E13" t="str">
+        <v>12</v>
+      </c>
+      <c r="F13" t="str">
+        <v>2</v>
+      </c>
+      <c r="G13" t="str">
+        <v>0</v>
+      </c>
+      <c r="H13" t="str">
+        <v>125.00</v>
+      </c>
+      <c r="I13" t="str">
+        <v>Dubai (DSC)</v>
+      </c>
+      <c r="J13" t="str">
+        <v>Oct 29 2020</v>
+      </c>
+      <c r="K13" t="str">
+        <v>Super Kings won by 6 wickets</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Eoin Morgan (c)</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Kolkata Knight Riders</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+      <c r="D14" t="str">
+        <v>30</v>
+      </c>
+      <c r="E14" t="str">
+        <v>34</v>
+      </c>
+      <c r="F14" t="str">
+        <v>3</v>
+      </c>
+      <c r="G14" t="str">
+        <v>1</v>
+      </c>
+      <c r="H14" t="str">
+        <v>88.23</v>
+      </c>
+      <c r="I14" t="str">
+        <v>Abu Dhabi</v>
+      </c>
+      <c r="J14" t="str">
+        <v>Oct 21 2020</v>
+      </c>
+      <c r="K14" t="str">
+        <v>RCB won by 8 wickets (with 39 balls remaining)</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Eoin Morgan (c)</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Kolkata Knight Riders</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Sunrisers Hyderabad</v>
+      </c>
+      <c r="D15" t="str">
+        <v>34</v>
+      </c>
+      <c r="E15" t="str">
+        <v>23</v>
+      </c>
+      <c r="F15" t="str">
+        <v>3</v>
+      </c>
+      <c r="G15" t="str">
+        <v>1</v>
+      </c>
+      <c r="H15" t="str">
+        <v>147.82</v>
+      </c>
+      <c r="I15" t="str">
+        <v>Abu Dhabi</v>
+      </c>
+      <c r="J15" t="str">
+        <v>Oct 18 2020</v>
+      </c>
+      <c r="K15" t="str">
+        <v>Match tied (KKR won the one-over eliminator)</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K15"/>
   </ignoredErrors>
 </worksheet>
 </file>